--- a/back/трекер.xlsx
+++ b/back/трекер.xlsx
@@ -1,40 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealyakina\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B71DC72-33BE-47D2-9AE5-F9A25FCDD52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="223">
   <si>
     <t>№СМР</t>
   </si>
   <si>
-    <t>№Дог Зак</t>
+    <t xml:space="preserve">№Дог Зак</t>
   </si>
   <si>
     <t>РЭС</t>
   </si>
   <si>
-    <t>Статус договора</t>
-  </si>
-  <si>
-    <t>Основной договор</t>
+    <t xml:space="preserve">Статус договора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основной договор</t>
   </si>
   <si>
     <t>Заказчик</t>
@@ -43,25 +39,25 @@
     <t>Титул</t>
   </si>
   <si>
-    <t>Заявитель ФИО</t>
+    <t xml:space="preserve">Заявитель ФИО</t>
   </si>
   <si>
     <t>Адрес</t>
   </si>
   <si>
-    <t>КН участника</t>
-  </si>
-  <si>
-    <t>Мощность по ТУ</t>
-  </si>
-  <si>
-    <t>ТУ получены</t>
-  </si>
-  <si>
-    <t>Поступил в работу</t>
-  </si>
-  <si>
-    <t>Менеджер проекта</t>
+    <t xml:space="preserve">КН участника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мощность по ТУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТУ получены</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поступил в работу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер проекта</t>
   </si>
   <si>
     <t>Классификатор</t>
@@ -70,157 +66,157 @@
     <t>Обследователь</t>
   </si>
   <si>
-    <t>ГИП исполнитель</t>
-  </si>
-  <si>
-    <t>Статус ПИР</t>
-  </si>
-  <si>
-    <t>Статус ПИР дата</t>
-  </si>
-  <si>
-    <t>Выезд на ППО</t>
-  </si>
-  <si>
-    <t>ГЕО получено</t>
-  </si>
-  <si>
-    <t>Статус согл ГЕО</t>
-  </si>
-  <si>
-    <t>ГЕО согласовано всеми</t>
-  </si>
-  <si>
-    <t>Статус согл ПТ</t>
-  </si>
-  <si>
-    <t>ПТ согласован Землевлад.</t>
-  </si>
-  <si>
-    <t>ПТ и обуд согл с РЭС</t>
-  </si>
-  <si>
-    <t>ГНБ (ПИР)</t>
-  </si>
-  <si>
-    <t>ГНБ (ПИР) дата</t>
-  </si>
-  <si>
-    <t>Статус РЗА</t>
-  </si>
-  <si>
-    <t>Статус РЗА дата</t>
-  </si>
-  <si>
-    <t>Статус ТМ</t>
-  </si>
-  <si>
-    <t>Статус ТМ дата</t>
-  </si>
-  <si>
-    <t>ПИР Предв. согл. до АПСД</t>
-  </si>
-  <si>
-    <t>ПИР согласован АПСД</t>
-  </si>
-  <si>
-    <t>Отв. за СМР</t>
-  </si>
-  <si>
-    <t>Статус СМР</t>
-  </si>
-  <si>
-    <t>Дата статуса СМР</t>
-  </si>
-  <si>
-    <t>Статус Снабж матер</t>
-  </si>
-  <si>
-    <t>Дата статуса Снабж матер</t>
-  </si>
-  <si>
-    <t>Статус Снабж оборуд</t>
-  </si>
-  <si>
-    <t>Дата статуса Снабж оборуд</t>
-  </si>
-  <si>
-    <t>Статус Отключение</t>
-  </si>
-  <si>
-    <t>Дата статус Отключение</t>
-  </si>
-  <si>
-    <t>Зем ордер статус</t>
-  </si>
-  <si>
-    <t>Дата статуса Зем ордер</t>
-  </si>
-  <si>
-    <t>СМР старт</t>
-  </si>
-  <si>
-    <t>СМР финиш</t>
-  </si>
-  <si>
-    <t>Статус СК ЭС</t>
-  </si>
-  <si>
-    <t>Дата статуса СК ЭС</t>
-  </si>
-  <si>
-    <t>Отв ИД</t>
-  </si>
-  <si>
-    <t>Статус ИД</t>
-  </si>
-  <si>
-    <t>Дата статуса ИД</t>
-  </si>
-  <si>
-    <t>Паспорта получены ПТО</t>
-  </si>
-  <si>
-    <t>Требуется исп схема</t>
-  </si>
-  <si>
-    <t>ИД согласовано РЭС</t>
-  </si>
-  <si>
-    <t>ИД сдано в архив</t>
-  </si>
-  <si>
-    <t>Статус ВКЛ</t>
-  </si>
-  <si>
-    <t>Дата статуса ВКЛ</t>
-  </si>
-  <si>
-    <t>Объект включен</t>
-  </si>
-  <si>
-    <t>Отв Смета</t>
-  </si>
-  <si>
-    <t>Статус ПСД</t>
-  </si>
-  <si>
-    <t>Дата статуса ПСД</t>
-  </si>
-  <si>
-    <t>Смета согласована заказчиком</t>
-  </si>
-  <si>
-    <t>ПСД утверждено</t>
+    <t xml:space="preserve">ГИП исполнитель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ПИР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ПИР дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выезд на ППО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕО получено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус согл ГЕО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГЕО согласовано всеми</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус согл ПТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПТ согласован Землевлад.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПТ и обуд согл с РЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГНБ (ПИР)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ГНБ (ПИР) дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус РЗА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус РЗА дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ТМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ТМ дата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИР Предв. согл. до АПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИР согласован АПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отв. за СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Снабж матер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса Снабж матер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Снабж оборуд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса Снабж оборуд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус Отключение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статус Отключение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зем ордер статус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса Зем ордер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМР старт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СМР финиш</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус СК ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса СК ЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отв ИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса ИД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Паспорта получены ПТО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требуется исп схема</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИД согласовано РЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИД сдано в архив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ВКЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса ВКЛ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объект включен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отв Смета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус ПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дата статуса ПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Смета согласована заказчиком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПСД утверждено</t>
   </si>
   <si>
     <t>Расчет</t>
   </si>
   <si>
-    <t>Конец договора</t>
-  </si>
-  <si>
-    <t>Жалобы Организация</t>
+    <t xml:space="preserve">Конец договора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жалобы Организация</t>
   </si>
   <si>
     <t>Х962798-328251</t>
@@ -235,37 +231,37 @@
     <t>Север</t>
   </si>
   <si>
-    <t>МОЭСК СЭС (рамочный)</t>
-  </si>
-  <si>
-    <t>Строительство ТП-100/10/0,4кВ, КВЛ-10 кВ от ВЛЗ-10 кВ ф. 840304 "Б" ПС №840 "Омега", КЛ-0,4 кВ, РЛР, ВРЩ-0,4 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, с/пос. Кутузовское, д. Большаково, уч. №120</t>
-  </si>
-  <si>
-    <t>Логинова Марина Васильевна</t>
-  </si>
-  <si>
-    <t>Солнечногорский р-н,с/пос. Кутузовское, д. Большакове, участок №120</t>
+    <t xml:space="preserve">МОЭСК СЭС (рамочный)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Строительство ТП-100/10/0,4кВ, КВЛ-10 кВ от ВЛЗ-10 кВ ф. 840304 "Б" ПС №840 "Омега", КЛ-0,4 кВ, РЛР, ВРЩ-0,4 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, с/пос. Кутузовское, д. Большаково, уч. №120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Логинова Марина Васильевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечногорский р-н,с/пос. Кутузовское, д. Большакове, участок №120</t>
   </si>
   <si>
     <t>50:09:0070410:398</t>
   </si>
   <si>
-    <t>15 0,4 Третья</t>
+    <t xml:space="preserve">15 0,4 Третья</t>
   </si>
   <si>
     <t>03.10.2024</t>
   </si>
   <si>
-    <t>Султанова Инна Раухатовна</t>
-  </si>
-  <si>
-    <t>ПИР ждем</t>
-  </si>
-  <si>
-    <t>Вайс Юлианна Александровна</t>
-  </si>
-  <si>
-    <t>060 - Подготовить план трассы и оборудование</t>
+    <t xml:space="preserve">Султанова Инна Раухатовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИР ждем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вайс Юлианна Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">060 - Подготовить план трассы и оборудование</t>
   </si>
   <si>
     <t>04.10.2024</t>
@@ -277,7 +273,7 @@
     <t>0/0</t>
   </si>
   <si>
-    <t>Комиссия ГНБ ОК</t>
+    <t xml:space="preserve">Комиссия ГНБ ОК</t>
   </si>
   <si>
     <t>06.08.2025</t>
@@ -298,40 +294,40 @@
     <t>СРЭС</t>
   </si>
   <si>
-    <t>ООО "ГЕФЕСТ" (суб под ООО "Энком")</t>
-  </si>
-  <si>
-    <t>Реконструкция КТП-10/0,4кВ №632 (замена КТП и трансформатора 400 кВА на на КТП-10/0,4кВ с силовым тр-ром 630кВА), ВЛЗ-10 кВ от ВЛЗ-10 кВ ПС №71 "Поварово", рлр, ВЛИ-0,38 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, в районе д. п. Поварово, территория СНТ "Художник-1"</t>
-  </si>
-  <si>
-    <t>ТСН СНТ "Художник-1"</t>
-  </si>
-  <si>
-    <t>Солнечногорский муниципальный район, городское поселение Поварово, в районе дачного поселка Поварово, территория СНТ "Художник-1"</t>
+    <t xml:space="preserve">ООО "ГЕФЕСТ" (суб под ООО "Энком")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Реконструкция КТП-10/0,4кВ №632 (замена КТП и трансформатора 400 кВА на на КТП-10/0,4кВ с силовым тр-ром 630кВА), ВЛЗ-10 кВ от ВЛЗ-10 кВ ПС №71 "Поварово", рлр, ВЛИ-0,38 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, в районе д. п. Поварово, территория СНТ "Художник-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТСН СНТ "Художник-1"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Солнечногорский муниципальный район, городское поселение Поварово, в районе дачного поселка Поварово, территория СНТ "Художник-1"</t>
   </si>
   <si>
     <t>50:09:0050408:1364</t>
   </si>
   <si>
-    <t>121 к 29   0,4 Третья</t>
+    <t xml:space="preserve">121 к 29   0,4 Третья</t>
   </si>
   <si>
     <t>13.10.2022</t>
   </si>
   <si>
-    <t>Алякина Екатерина Викторовна</t>
-  </si>
-  <si>
-    <t>новое в стройку</t>
-  </si>
-  <si>
-    <t>Нурмухаметов Динар Ильфатович</t>
-  </si>
-  <si>
-    <t>Докукин Михаил Олегович</t>
-  </si>
-  <si>
-    <t>180 - ПИР согласован АПСД</t>
+    <t xml:space="preserve">Алякина Екатерина Викторовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">новое в стройку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нурмухаметов Динар Ильфатович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Докукин Михаил Олегович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 - ПИР согласован АПСД</t>
   </si>
   <si>
     <t>22.04.2025</t>
@@ -346,28 +342,28 @@
     <t>01.10.2024</t>
   </si>
   <si>
-    <t>0 - ГНБ не требуется</t>
-  </si>
-  <si>
-    <t>РЗА получено</t>
-  </si>
-  <si>
-    <t>0 - ТМ не требуется</t>
+    <t xml:space="preserve">0 - ГНБ не требуется</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЗА получено</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 - ТМ не требуется</t>
   </si>
   <si>
     <t>11.07.2024</t>
   </si>
   <si>
-    <t>Рославцева Елена Александровна</t>
-  </si>
-  <si>
-    <t>120 - ПСД утверждено</t>
+    <t xml:space="preserve">Рославцева Елена Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 - ПСД утверждено</t>
   </si>
   <si>
     <t>10.02.2023</t>
   </si>
   <si>
-    <t>Приказ 221</t>
+    <t xml:space="preserve">Приказ 221</t>
   </si>
   <si>
     <t>С176291-289096/СМР-2ПК</t>
@@ -385,19 +381,19 @@
     <t>С259941-309788</t>
   </si>
   <si>
-    <t>Строительство 2БКТП-10/0,4 кВ № 1 с трансформаторами 2х1250 кВА и № 2 с трансформаторами 2х1000 кВА, 2КЛ-10 кВ от яч. 6 и яч. 17 РУ-10кВ РП-10 кВ № 26116 до 1-ой и 2-ой сек. РУ-10 кВ сооруж. БКТП-10/0,4 кВ № 1, 2КЛ-10 кВ от 1-ой и 2-ой сек. РУ-10 кВ сооруж. БКТП-10/0,4 кВ № 1 до 1-ой и 2-ой сек. РУ-10 кВ сооруж. БКТП-10/0,4 кВ № 2, 48КЛ-0,4 кВ от сооруж. БКТП-10/0,4 кВ № 1 и № 2 до сооруж. ВРУ-0,4 кВ № 1, 2, 3 к.1-8, в т.ч. ПИР, МО, Солнечногорский р-н, г.п. Андреевка, р.п. Андреевка</t>
+    <t xml:space="preserve">Строительство 2БКТП-10/0,4 кВ № 1 с трансформаторами 2х1250 кВА и № 2 с трансформаторами 2х1000 кВА, 2КЛ-10 кВ от яч. 6 и яч. 17 РУ-10кВ РП-10 кВ № 26116 до 1-ой и 2-ой сек. РУ-10 кВ сооруж. БКТП-10/0,4 кВ № 1, 2КЛ-10 кВ от 1-ой и 2-ой сек. РУ-10 кВ сооруж. БКТП-10/0,4 кВ № 1 до 1-ой и 2-ой сек. РУ-10 кВ сооруж. БКТП-10/0,4 кВ № 2, 48КЛ-0,4 кВ от сооруж. БКТП-10/0,4 кВ № 1 и № 2 до сооруж. ВРУ-0,4 кВ № 1, 2, 3 к.1-8, в т.ч. ПИР, МО, Солнечногорский р-н, г.п. Андреевка, р.п. Андреевка</t>
   </si>
   <si>
     <t xml:space="preserve">ООО «Специализированный застройщик«КапиталИнвест» </t>
   </si>
   <si>
-    <t>городское поселение Андреевка, рабочий поселок Андреевка</t>
-  </si>
-  <si>
-    <t>50:09:0070101:11275; 50:09:0070101:14562; 50:09:0070101:14563; 50:09:0070101:14564; 50:09:0070101:14</t>
-  </si>
-  <si>
-    <t>2 391,4 кВт Вторая 0,4</t>
+    <t xml:space="preserve">городское поселение Андреевка, рабочий поселок Андреевка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50:09:0070101:11275; 50:09:0070101:14562; 50:09:0070101:14563; 50:09:0070101:14564; 50:09:0070101:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 391,4 кВт Вторая 0,4</t>
   </si>
   <si>
     <t>08.12.2023</t>
@@ -406,7 +402,7 @@
     <t>строим</t>
   </si>
   <si>
-    <t>Лапшин Вадим Анатольевич</t>
+    <t xml:space="preserve">Лапшин Вадим Анатольевич</t>
   </si>
   <si>
     <t>13.08.2025</t>
@@ -439,7 +435,7 @@
     <t>05.08.2024</t>
   </si>
   <si>
-    <t>ТМ получена</t>
+    <t xml:space="preserve">ТМ получена</t>
   </si>
   <si>
     <t>17.10.2024</t>
@@ -448,10 +444,10 @@
     <t xml:space="preserve">Зозуля Андрей Сергеевич </t>
   </si>
   <si>
-    <t>050 - Окончить СМР</t>
-  </si>
-  <si>
-    <t>з/о получен</t>
+    <t xml:space="preserve">050 - Окончить СМР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">з/о получен</t>
   </si>
   <si>
     <t>10.07.2025</t>
@@ -460,7 +456,7 @@
     <t>25.08.2025</t>
   </si>
   <si>
-    <t>Трушина Татьяна</t>
+    <t xml:space="preserve">Трушина Татьяна</t>
   </si>
   <si>
     <t>08.08.2025</t>
@@ -472,31 +468,31 @@
     <t>С275903-325312</t>
   </si>
   <si>
-    <t>Реконструкция КТП-10/0,4кВ сооруж. по дог. № С8-22-302-82027(176574) от 02.06.2022) - замена КТП и трансформатора 160 кВА на ТП и трансформатор 630 кВА), ПС №264 "Мцыри", в т.ч. ПИР, МО, Солнечногорский р-н, с/п Кутузовское, д. Брёхово</t>
-  </si>
-  <si>
-    <t>Григорян Кристина Владимировна</t>
-  </si>
-  <si>
-    <t>р-н Солнечногорский, с/п Кутузовское, д Брёхово</t>
+    <t xml:space="preserve">Реконструкция КТП-10/0,4кВ сооруж. по дог. № С8-22-302-82027(176574) от 02.06.2022) - замена КТП и трансформатора 160 кВА на ТП и трансформатор 630 кВА), ПС №264 "Мцыри", в т.ч. ПИР, МО, Солнечногорский р-н, с/п Кутузовское, д. Брёхово</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Григорян Кристина Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">р-н Солнечногорский, с/п Кутузовское, д Брёхово</t>
   </si>
   <si>
     <t>50:09:0070416:2728</t>
   </si>
   <si>
-    <t>150 третья 0,4</t>
+    <t xml:space="preserve">150 третья 0,4</t>
   </si>
   <si>
     <t>22.08.2024</t>
   </si>
   <si>
-    <t>Трубайчук Татьяна Владимировна</t>
-  </si>
-  <si>
-    <t>Нужен выезд</t>
-  </si>
-  <si>
-    <t>999 - *проблема</t>
+    <t xml:space="preserve">Трубайчук Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нужен выезд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999 - *проблема</t>
   </si>
   <si>
     <t>03.12.2024</t>
@@ -511,13 +507,13 @@
     <t>C518777-333009</t>
   </si>
   <si>
-    <t>Строительство ВЛЗ-10 кВ от ВЛЗ-10 кВ ф. Хоругвино ПС №71 "Поварово", ВЛИ-0,38 кВ, ВРЩ-0,4 кВ, в т.ч. ПИР, МО, Солнечногорский р-н</t>
-  </si>
-  <si>
-    <t>ООО "ПЛАТТЕНХАУС"</t>
-  </si>
-  <si>
-    <t>Московская обл., г Солнечногорск</t>
+    <t xml:space="preserve">Строительство ВЛЗ-10 кВ от ВЛЗ-10 кВ ф. Хоругвино ПС №71 "Поварово", ВЛИ-0,38 кВ, ВРЩ-0,4 кВ, в т.ч. ПИР, МО, Солнечногорский р-н</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ПЛАТТЕНХАУС"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московская обл., г Солнечногорск</t>
   </si>
   <si>
     <t>50:09:0020328:2362</t>
@@ -526,7 +522,7 @@
     <t>02.12.2024</t>
   </si>
   <si>
-    <t>Жильцов Станислав Кириллович</t>
+    <t xml:space="preserve">Жильцов Станислав Кириллович</t>
   </si>
   <si>
     <t>02.01.2025</t>
@@ -535,19 +531,19 @@
     <t>C518777-333025</t>
   </si>
   <si>
-    <t>Реконструкция ТП-10/0,4кВ (сооруж. по дог. №С8-23-302-125756(658157) от 15.02.2023 -замена ТП с трансформатором 400кВА на ТП с трансформатором 1000 кВА), ПС №71 "Поварово", в т.ч. ПИР, МО, Солнечногорский р-н</t>
+    <t xml:space="preserve">Реконструкция ТП-10/0,4кВ (сооруж. по дог. №С8-23-302-125756(658157) от 15.02.2023 -замена ТП с трансформатором 400кВА на ТП с трансформатором 1000 кВА), ПС №71 "Поварово", в т.ч. ПИР, МО, Солнечногорский р-н</t>
   </si>
   <si>
     <t>С591368-335847</t>
   </si>
   <si>
-    <t>Строительство ТП-10/0,4кВ, КЛ-10 кВ от сооруж. КРУН-10кВ, ПС №71 "Поварово", КРУН-10 кВ, ВЛИ-0,38 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, д. Радумля</t>
-  </si>
-  <si>
-    <t>ИП Корнеева Марина Николаевна</t>
-  </si>
-  <si>
-    <t>городской округ Солнечногорск, деревня Радумля</t>
+    <t xml:space="preserve">Строительство ТП-10/0,4кВ, КЛ-10 кВ от сооруж. КРУН-10кВ, ПС №71 "Поварово", КРУН-10 кВ, ВЛИ-0,38 кВ, в т.ч. ПИР, МО, Солнечногорский р-н, д. Радумля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Корнеева Марина Николаевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">городской округ Солнечногорск, деревня Радумля</t>
   </si>
   <si>
     <t>50:09:0020328:2768</t>
@@ -559,13 +555,13 @@
     <t xml:space="preserve">Купцова Ольга Алексеевна </t>
   </si>
   <si>
-    <t>дооформить проект</t>
-  </si>
-  <si>
-    <t>Галеева Оксана Борисовна</t>
-  </si>
-  <si>
-    <t>110 - Согласовать ПТ и оборудование с РЭС</t>
+    <t xml:space="preserve">дооформить проект</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Галеева Оксана Борисовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 - Согласовать ПТ и оборудование с РЭС</t>
   </si>
   <si>
     <t>09.07.2025</t>
@@ -586,13 +582,13 @@
     <t>30.07.2025</t>
   </si>
   <si>
-    <t>РЗА заказано</t>
+    <t xml:space="preserve">РЗА заказано</t>
   </si>
   <si>
     <t>31.07.2025</t>
   </si>
   <si>
-    <t>ТМ заказана</t>
+    <t xml:space="preserve">ТМ заказана</t>
   </si>
   <si>
     <t>12.08.2025</t>
@@ -601,29 +597,29 @@
     <t>07.02.2025</t>
   </si>
   <si>
-    <t>Претензия от Россети МР</t>
+    <t xml:space="preserve">Претензия от Россети МР</t>
   </si>
   <si>
     <t>С163997-322966/СКП/ПИР</t>
   </si>
   <si>
-    <t>Строительство КЛ-35 кВ Поварово - Воробьево от оп. 32 до оп. 38(взамен существующей ВЛ-35кВ) для освобождения земельного участка заявителя, в т.ч. ПИР, МО, г.о. Солнечногорск, кв Есипово-1, уч. 3; 1а; 8</t>
-  </si>
-  <si>
-    <t>ООО "ВАЙЛДБЕРРИЗ"</t>
-  </si>
-  <si>
-    <t>городской округ Солнечногорск, квартал Есипово - 1, земельный участок 3; 1а; 8</t>
-  </si>
-  <si>
-    <t>50:09:0020618:696, 50:09:0020618:664, 50:09:0020618":672, 50:09:0020618:701,
+    <t xml:space="preserve">Строительство КЛ-35 кВ Поварово - Воробьево от оп. 32 до оп. 38(взамен существующей ВЛ-35кВ) для освобождения земельного участка заявителя, в т.ч. ПИР, МО, г.о. Солнечногорск, кв Есипово-1, уч. 3; 1а; 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "ВАЙЛДБЕРРИЗ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">городской округ Солнечногорск, квартал Есипово - 1, земельный участок 3; 1а; 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50:09:0020618:696, 50:09:0020618:664, 50:09:0020618":672, 50:09:0020618:701,
 50:09:0020618:703</t>
   </si>
   <si>
-    <t>Согласование Архив ПСД</t>
-  </si>
-  <si>
-    <t>170 - *Направлен в АПСД</t>
+    <t xml:space="preserve">Согласование Архив ПСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">170 - *Направлен в АПСД</t>
   </si>
   <si>
     <t>04.07.2025</t>
@@ -632,7 +628,7 @@
     <t>1/6</t>
   </si>
   <si>
-    <t>Пахомова Любовь Олеговна</t>
+    <t xml:space="preserve">Пахомова Любовь Олеговна</t>
   </si>
   <si>
     <t>21.07.2025</t>
@@ -656,31 +652,31 @@
     <t>Х188853-342914</t>
   </si>
   <si>
-    <t>Строительство ВЛИ-0,38 кВ от ТП-10/0,4 кВ № 4020, ПС №35 "Октябрьская", установка фид. места, в т.ч. ПИР, МО, Химкинский р-н, д. Юрлово, ул. Сосновая, стр. 3/4</t>
-  </si>
-  <si>
-    <t>ИП Айрапетян Гайк Михайлович</t>
-  </si>
-  <si>
-    <t>городской округ Химки, деревня Юрлове, улица Сосновая, строение 3/4</t>
+    <t xml:space="preserve">Строительство ВЛИ-0,38 кВ от ТП-10/0,4 кВ № 4020, ПС №35 "Октябрьская", установка фид. места, в т.ч. ПИР, МО, Химкинский р-н, д. Юрлово, ул. Сосновая, стр. 3/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИП Айрапетян Гайк Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">городской округ Химки, деревня Юрлове, улица Сосновая, строение 3/4</t>
   </si>
   <si>
     <t>50:09:0000000:16176</t>
   </si>
   <si>
-    <t>75 к 10 третья 0,4</t>
+    <t xml:space="preserve">75 к 10 третья 0,4</t>
   </si>
   <si>
     <t>согласования</t>
   </si>
   <si>
-    <t>Иванова Дарья Михайловна</t>
-  </si>
-  <si>
-    <t>Рыжаков Никита Юрьевич</t>
-  </si>
-  <si>
-    <t>050 - *Согласования ГЕО</t>
+    <t xml:space="preserve">Иванова Дарья Михайловна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рыжаков Никита Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">050 - *Согласования ГЕО</t>
   </si>
   <si>
     <t>24.07.2025</t>
@@ -695,11 +691,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -713,19 +709,19 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,7 +729,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -745,7 +741,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -791,13 +787,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -820,19 +816,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -855,7 +850,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1030,27 +1024,235 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" customWidth="1"/>
-    <col min="8" max="8" width="47.140625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="7"/>
+    <col customWidth="1" min="2" max="2" style="1" width="18.7109375"/>
+    <col customWidth="1" min="3" max="3" width="6.5703125"/>
+    <col customWidth="1" min="4" max="4" width="13.5703125"/>
+    <col customWidth="1" min="5" max="5" width="19.140625"/>
+    <col customWidth="1" min="6" max="6" width="22.85546875"/>
+    <col customWidth="1" min="7" max="7" width="53.85546875"/>
+    <col customWidth="1" min="8" max="8" width="47.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1253,7 +1455,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2">
         <v>3824</v>
       </c>
@@ -1360,7 +1562,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:67" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" ht="30">
       <c r="A3">
         <v>4396</v>
       </c>
@@ -1500,7 +1702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:67" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" ht="28.5">
       <c r="A4">
         <v>4396</v>
       </c>
@@ -1613,7 +1815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5">
         <v>4741</v>
       </c>
@@ -1765,7 +1967,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>4955</v>
       </c>
@@ -1875,7 +2077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>5048</v>
       </c>
@@ -1982,7 +2184,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8">
         <v>5049</v>
       </c>
@@ -2086,7 +2288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
         <v>5073</v>
       </c>
@@ -2214,7 +2416,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:67" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" ht="28.5">
       <c r="A10">
         <v>5125</v>
       </c>
@@ -2333,7 +2535,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:67" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" ht="28.5">
       <c r="A11">
         <v>5125</v>
       </c>
@@ -2452,7 +2654,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12">
         <v>5257</v>
       </c>
@@ -2566,7 +2768,10 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetProtection autoFilter="0" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" pivotTables="0" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="0"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>